--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ner-re-pt\hyperparameters-graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ner-re-pt\graphs\hyperparameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -225,6 +225,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,10 +1991,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$11</c:f>
+              <c:f>Spacy!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2005,17 +2014,32 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$D$5:$D$11</c:f>
+              <c:f>Spacy!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45.7</c:v>
                 </c:pt>
@@ -2035,7 +2059,22 @@
                   <c:v>46.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>46.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,10 +2126,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$11</c:f>
+              <c:f>Spacy!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2110,17 +2149,32 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$E$5:$E$11</c:f>
+              <c:f>Spacy!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44.48</c:v>
                 </c:pt>
@@ -2140,6 +2194,21 @@
                   <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45.48</c:v>
                 </c:pt>
               </c:numCache>
@@ -2192,10 +2261,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$11</c:f>
+              <c:f>Spacy!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2215,17 +2284,32 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$F$5:$F$11</c:f>
+              <c:f>Spacy!$F$5:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>39.07</c:v>
                 </c:pt>
@@ -2245,7 +2329,22 @@
                   <c:v>41.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>42.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,111 +2353,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-B3B0-4412-A6D2-22FC3BC5BD58}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Spacy!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Spacy!$C$5:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Spacy!$G$5:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2374,6 +2368,165 @@
         <c:smooth val="0"/>
         <c:axId val="418370808"/>
         <c:axId val="418371464"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$C$5:$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$G$5:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>46.96</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.63</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>47.65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>48.42</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>47.84</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>48.38</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48.73</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>48.57</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>48.26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>48.37</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>49.3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>49.09</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="418370808"/>
@@ -4385,9 +4538,9 @@
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4715,7 +4868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5154,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,20 +5460,105 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="14">
+      <c r="C11" s="18">
+        <v>70</v>
+      </c>
+      <c r="D11" s="19">
+        <v>46.57</v>
+      </c>
+      <c r="E11" s="19">
+        <v>45.17</v>
+      </c>
+      <c r="F11" s="19">
+        <v>41.62</v>
+      </c>
+      <c r="G11" s="19">
+        <v>48.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="18">
+        <v>80</v>
+      </c>
+      <c r="D12" s="19">
+        <v>46.43</v>
+      </c>
+      <c r="E12" s="19">
+        <v>45.17</v>
+      </c>
+      <c r="F12" s="19">
+        <v>42.09</v>
+      </c>
+      <c r="G12" s="19">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="18">
+        <v>90</v>
+      </c>
+      <c r="D13" s="19">
+        <v>46.51</v>
+      </c>
+      <c r="E13" s="19">
+        <v>45.48</v>
+      </c>
+      <c r="F13" s="19">
+        <v>42</v>
+      </c>
+      <c r="G13" s="19">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
         <v>100</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D14" s="15">
         <v>46.21</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E14" s="15">
         <v>45.48</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F14" s="15">
         <v>42.11</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G14" s="15">
         <v>48.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="20">
+        <v>110</v>
+      </c>
+      <c r="D15" s="16">
+        <v>46.6</v>
+      </c>
+      <c r="E15" s="16">
+        <v>45.27</v>
+      </c>
+      <c r="F15" s="16">
+        <v>42.46</v>
+      </c>
+      <c r="G15" s="16">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="20">
+        <v>120</v>
+      </c>
+      <c r="D16" s="16">
+        <v>46.13</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45.48</v>
+      </c>
+      <c r="F16" s="16">
+        <v>41.79</v>
+      </c>
+      <c r="G16" s="16">
+        <v>49.09</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
     <sheet name="Spacy" sheetId="1" r:id="rId2"/>
+    <sheet name="Stanford CoreNLP" sheetId="4" r:id="rId3"/>
+    <sheet name="NLTK" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spacy!$D$5:$G$10</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Value</t>
   </si>
@@ -73,7 +75,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0E+00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +115,20 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -233,6 +252,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2822,6 +2862,1373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stanford CoreNLP'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Categories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Stanford CoreNLP'!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stanford CoreNLP'!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6F3-4DD1-AA0F-59A7C61F61B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stanford CoreNLP'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Stanford CoreNLP'!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stanford CoreNLP'!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6F3-4DD1-AA0F-59A7C61F61B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441148656"/>
+        <c:axId val="441149312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441148656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Tolerance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441149312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441149312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F-measure (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441148656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NLTK!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Categories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NLTK!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NLTK!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46DE-4FD8-B128-718E00C880E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NLTK!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NLTK!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NLTK!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46DE-4FD8-B128-718E00C880E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NLTK!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subtypes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NLTK!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NLTK!$F$6:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-46DE-4FD8-B128-718E00C880E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NLTK!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NLTK!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NLTK!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-46DE-4FD8-B128-718E00C880E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440292920"/>
+        <c:axId val="440293248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440292920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Entropy Cutoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440293248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440293248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="22"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F-measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440292920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2942,6 +4349,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3949,6 +5436,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4549,6 +7042,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55832E57-A0FF-4F70-B418-1C2755BE9F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604344</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275897</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25AA160-3C4E-466D-B5E6-B708BDF446F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD729CF0-5528-4743-80C0-57A5AB16B092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +7884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5566,4 +8141,331 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>54.07</v>
+      </c>
+      <c r="E6" s="10">
+        <v>58.94</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="23">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D7" s="13">
+        <v>54.02</v>
+      </c>
+      <c r="E7" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>54.15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>58.84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>54.02</v>
+      </c>
+      <c r="E9" s="13">
+        <v>58.72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="26">
+        <v>54.31</v>
+      </c>
+      <c r="E10" s="10">
+        <v>58.86</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>54.12</v>
+      </c>
+      <c r="E11" s="13">
+        <v>58.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>26.14</v>
+      </c>
+      <c r="E6">
+        <v>24.24</v>
+      </c>
+      <c r="F6">
+        <v>32.6</v>
+      </c>
+      <c r="G6">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>26.14</v>
+      </c>
+      <c r="E7">
+        <v>24.24</v>
+      </c>
+      <c r="F7">
+        <v>32.61</v>
+      </c>
+      <c r="G7">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>26.14</v>
+      </c>
+      <c r="E8">
+        <v>24.24</v>
+      </c>
+      <c r="F8">
+        <v>32.61</v>
+      </c>
+      <c r="G8">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>26.19</v>
+      </c>
+      <c r="E9">
+        <v>24.24</v>
+      </c>
+      <c r="F9">
+        <v>32.61</v>
+      </c>
+      <c r="G9">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>26.19</v>
+      </c>
+      <c r="E10">
+        <v>24.25</v>
+      </c>
+      <c r="F10">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="G10">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <v>26.36</v>
+      </c>
+      <c r="E11">
+        <v>24.29</v>
+      </c>
+      <c r="F11">
+        <v>32.69</v>
+      </c>
+      <c r="G11">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.09</v>
+      </c>
+      <c r="D12">
+        <v>26.36</v>
+      </c>
+      <c r="E12">
+        <v>24.29</v>
+      </c>
+      <c r="F12">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G12">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>26.36</v>
+      </c>
+      <c r="E13">
+        <v>24.29</v>
+      </c>
+      <c r="F13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G13">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.11</v>
+      </c>
+      <c r="D14">
+        <v>26.36</v>
+      </c>
+      <c r="E14">
+        <v>24.28</v>
+      </c>
+      <c r="F14">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G14">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>26.36</v>
+      </c>
+      <c r="E15">
+        <v>24.28</v>
+      </c>
+      <c r="F15">
+        <v>32.65</v>
+      </c>
+      <c r="G15">
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.13</v>
+      </c>
+      <c r="D16">
+        <v>26.36</v>
+      </c>
+      <c r="E16">
+        <v>24.28</v>
+      </c>
+      <c r="F16">
+        <v>32.65</v>
+      </c>
+      <c r="G16">
+        <v>28.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -256,13 +256,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,7 +931,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1860,7 +1860,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2396,6 +2396,144 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacy!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Spacy!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacy!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.09</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2408,165 +2546,7 @@
         <c:smooth val="0"/>
         <c:axId val="418370808"/>
         <c:axId val="418371464"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Spacy!$G$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Filtered</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Spacy!$C$5:$C$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>120</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Spacy!$G$5:$G$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>46.96</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>47.63</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>47.65</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>48.42</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>47.84</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>48.38</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>48.73</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>48.57</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>48.26</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>48.37</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>49.3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>49.09</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="418370808"/>
@@ -2751,7 +2731,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2981,105 +2961,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Stanford CoreNLP'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Stanford CoreNLP'!$C$6:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stanford CoreNLP'!$E$6:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>58.94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6F3-4DD1-AA0F-59A7C61F61B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3092,6 +2973,129 @@
         <c:smooth val="0"/>
         <c:axId val="441148656"/>
         <c:axId val="441149312"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Stanford CoreNLP'!$E$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Stanford CoreNLP'!$C$6:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0E+00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.0000000000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Stanford CoreNLP'!$E$6:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>58.94</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>58.84</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>58.72</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>58.86</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>58.81</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C6F3-4DD1-AA0F-59A7C61F61B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="441148656"/>
@@ -3203,6 +3207,8 @@
         <c:axId val="441149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="53.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3793,135 +3799,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NLTK!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>NLTK!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NLTK!$G$6:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>28.82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-46DE-4FD8-B128-718E00C880E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3934,6 +3811,159 @@
         <c:smooth val="0"/>
         <c:axId val="440292920"/>
         <c:axId val="440293248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NLTK!$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NLTK!$C$6:$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>NLTK!$G$6:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>28.82</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28.85</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28.83</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>28.77</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28.58</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28.59</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-46DE-4FD8-B128-718E00C880E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="440292920"/>
@@ -6984,16 +7014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7108,15 +7138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>147636</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7443,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7885,7 +7915,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,8 +8177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8247,8 +8277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
@@ -626,114 +626,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenNLP!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>OpenNLP!$G$5:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>49.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.56</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -746,7 +638,135 @@
         <c:smooth val="0"/>
         <c:axId val="427291440"/>
         <c:axId val="427292752"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$C$5:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$5:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>49.27</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56.35</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55.91</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>55.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>54.56</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="427291440"/>
@@ -1037,7 +1057,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1503,156 +1523,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenNLP!$G$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>OpenNLP!$G$33:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>55.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57.73</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1665,7 +1535,177 @@
         <c:smooth val="0"/>
         <c:axId val="511839568"/>
         <c:axId val="511839896"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$C$33:$C$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$33:$G$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>55.83</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56.27</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.52</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>57.16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>57.27</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57.38</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>57.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>57.47</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>57.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>57.49</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>57.44</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>57.73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="511839568"/>
@@ -1966,7 +2006,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2396,144 +2436,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Spacy!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Spacy!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Spacy!$G$5:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>46.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.09</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2546,7 +2448,165 @@
         <c:smooth val="0"/>
         <c:axId val="418370808"/>
         <c:axId val="418371464"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$C$5:$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Spacy!$G$5:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>46.96</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.63</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>47.65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>48.42</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>47.84</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>48.38</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48.73</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>48.57</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>48.26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>48.37</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>49.3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>49.09</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B3B0-4412-A6D2-22FC3BC5BD58}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="418370808"/>
@@ -2837,7 +2897,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3387,7 +3447,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7473,8 +7533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7905,7 +7965,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7914,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8168,7 +8228,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8177,7 +8237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -8268,7 +8328,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
@@ -3341,7 +3341,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7974,7 +7974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -8237,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/graphs/hyperparameters/Hyperparameter graphs.xlsx
+++ b/graphs/hyperparameters/Hyperparameter graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OpenNLP" sheetId="3" r:id="rId1"/>
@@ -782,7 +782,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -814,7 +814,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -852,7 +852,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -903,7 +903,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -935,7 +935,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -967,7 +967,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1009,7 +1009,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1049,7 +1049,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1721,7 +1721,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1735,13 +1735,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of iterations</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of iterations</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1758,7 +1753,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1796,7 +1791,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1847,7 +1842,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1861,13 +1856,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>F-measure</a:t>
+                  <a:t>F-measure (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1884,7 +1874,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1916,7 +1906,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1958,7 +1948,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1998,7 +1988,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2622,7 +2612,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2654,7 +2644,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2692,7 +2682,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2743,7 +2733,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2775,7 +2765,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2807,7 +2797,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2849,7 +2839,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2889,7 +2879,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3171,7 +3161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3203,7 +3193,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3241,7 +3231,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3293,7 +3283,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3325,7 +3315,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3357,7 +3347,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3399,7 +3389,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3439,7 +3429,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4039,7 +4029,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4071,7 +4061,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4109,7 +4099,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4160,7 +4150,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4192,7 +4182,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4224,7 +4214,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4266,7 +4256,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4306,7 +4296,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7163,9 +7153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>275897</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8237,7 +8227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -8337,8 +8327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
